--- a/Outputs/1. Budget/Output Files/1000000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Output Files/1000000/Output_3_28.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2280164.183973117</v>
+        <v>2261586.166418165</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E2" t="n">
-        <v>102.2133755837553</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023555</v>
+        <v>102.2133755837552</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>177.8499111564946</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>17.78030433411091</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.25475958291592</v>
+        <v>52.65964236359512</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.039630846422</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.039630846422</v>
+        <v>372.0396308464216</v>
       </c>
       <c r="G5" t="n">
-        <v>372.039630846422</v>
+        <v>372.0396308464216</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
         <v>192.255830128091</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385217</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.3198765569425</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.4580015512968</v>
+        <v>84.45800155129685</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>23.72986093321018</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>137.1649833439803</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358477</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>55.13957087283069</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>185.864430919943</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>70.45348975018466</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>51.30079766335502</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>157.9610008998251</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>135.7789877804221</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.5307186024638</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>52.06419993906709</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>67.90088782653709</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>74.19689313865588</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2022,7 +2022,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>6.689440015337305</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.6723233019909</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>54.40067852162936</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>33.35146980185854</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>93.87916681140099</v>
       </c>
     </row>
     <row r="26">
@@ -2614,10 +2614,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>147.2810222559808</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.64266250431621</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>104.6354350586181</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>164.1005747232762</v>
       </c>
     </row>
     <row r="32">
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.57056562635492</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,10 +3246,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>149.6782495116969</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750042</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>71.4152038343595</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634799</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>66.87635383915804</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.4562764671716</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>96.24193553405004</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="C2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="D2" t="n">
-        <v>962.1762753293418</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="E2" t="n">
-        <v>858.9304414063566</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="F2" t="n">
-        <v>579.9844679696339</v>
+        <v>125.3383550191735</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901064</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>656.5303702859801</v>
+        <v>990.2208545725626</v>
       </c>
       <c r="C3" t="n">
-        <v>656.5303702859801</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="D3" t="n">
-        <v>507.5959606247288</v>
+        <v>666.8334156301844</v>
       </c>
       <c r="E3" t="n">
         <v>507.5959606247288</v>
@@ -4406,25 +4406,25 @@
         <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>564.7342926608062</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N3" t="n">
-        <v>838.1292412261381</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T3" t="n">
-        <v>656.5303702859801</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="U3" t="n">
-        <v>656.5303702859801</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="V3" t="n">
-        <v>656.5303702859801</v>
+        <v>990.2208545725626</v>
       </c>
       <c r="W3" t="n">
-        <v>656.5303702859801</v>
+        <v>990.2208545725626</v>
       </c>
       <c r="X3" t="n">
-        <v>656.5303702859801</v>
+        <v>990.2208545725626</v>
       </c>
       <c r="Y3" t="n">
-        <v>656.5303702859801</v>
+        <v>990.2208545725626</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1351.35379942464</v>
+        <v>1313.571089545164</v>
       </c>
       <c r="C5" t="n">
-        <v>1351.35379942464</v>
+        <v>1313.571089545164</v>
       </c>
       <c r="D5" t="n">
-        <v>1351.35379942464</v>
+        <v>1313.571089545164</v>
       </c>
       <c r="E5" t="n">
-        <v>975.5561925090623</v>
+        <v>1313.571089545164</v>
       </c>
       <c r="F5" t="n">
-        <v>599.7585855934844</v>
+        <v>937.7734826295869</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779067</v>
+        <v>561.9758757140095</v>
       </c>
       <c r="H5" t="n">
         <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J5" t="n">
-        <v>57.643917353804</v>
+        <v>57.64391735380389</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456879</v>
+        <v>220.1747338456875</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039976</v>
+        <v>474.0852112039969</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494159</v>
+        <v>773.2160860494151</v>
       </c>
       <c r="N5" t="n">
         <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293128</v>
+        <v>1290.582309293127</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.52377693588</v>
+        <v>1447.523776935879</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.76264748819</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.762647488192</v>
+        <v>1366.76264748819</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.4375039973501</v>
+        <v>593.89364356991</v>
       </c>
       <c r="C6" t="n">
-        <v>446.4375039973501</v>
+        <v>419.440614288783</v>
       </c>
       <c r="D6" t="n">
-        <v>446.4375039973501</v>
+        <v>270.5062046275317</v>
       </c>
       <c r="E6" t="n">
-        <v>287.2000489918946</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="F6" t="n">
-        <v>140.6654910187796</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
-        <v>140.6654910187796</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771376</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782849</v>
+        <v>52.67537262782838</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361413</v>
+        <v>218.4568186361411</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822775</v>
+        <v>502.7748277822772</v>
       </c>
       <c r="M6" t="n">
-        <v>871.0940623202353</v>
+        <v>871.0940623202346</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.413296858193</v>
+        <v>1078.493824334364</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241718</v>
+        <v>1386.808705706683</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385688</v>
+        <v>1386.808705706683</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385688</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707611</v>
+        <v>1402.847410707609</v>
       </c>
       <c r="S6" t="n">
-        <v>1402.847410707611</v>
+        <v>1378.877854209417</v>
       </c>
       <c r="T6" t="n">
-        <v>1201.690336058659</v>
+        <v>1177.720779560465</v>
       </c>
       <c r="U6" t="n">
-        <v>973.4835217122231</v>
+        <v>1177.720779560465</v>
       </c>
       <c r="V6" t="n">
-        <v>973.4835217122231</v>
+        <v>1177.720779560465</v>
       </c>
       <c r="W6" t="n">
-        <v>973.4835217122231</v>
+        <v>1177.720779560465</v>
       </c>
       <c r="X6" t="n">
-        <v>765.6320215066903</v>
+        <v>969.8692793549319</v>
       </c>
       <c r="Y6" t="n">
-        <v>557.8717227417364</v>
+        <v>762.108980589978</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="C7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="D7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="E7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="F7" t="n">
-        <v>259.5070699566849</v>
+        <v>168.3136586939565</v>
       </c>
       <c r="G7" t="n">
-        <v>259.5070699566849</v>
+        <v>168.3136586939565</v>
       </c>
       <c r="H7" t="n">
-        <v>259.5070699566849</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723448</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771376</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888156</v>
+        <v>32.09990175888144</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611266</v>
+        <v>90.61654790611243</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236688</v>
+        <v>162.7032697236684</v>
       </c>
       <c r="N7" t="n">
-        <v>238.510546840002</v>
+        <v>238.5105468400016</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057945</v>
+        <v>292.514541505794</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918674</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="R7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="S7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="T7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="U7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="V7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="W7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="X7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="Y7" t="n">
-        <v>259.5070699566849</v>
+        <v>315.2036061918668</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2509.407241604139</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2509.407241604139</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2509.407241604139</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>2135.941483343059</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>2135.941483343059</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6519168570173</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>252.6519168570173</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>252.6519168570173</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>252.6519168570173</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>105.7619693591069</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>105.7619693591069</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>549.4328533458727</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>402.5429058479623</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>234.3675841677829</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>378.1030765138943</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L15" t="n">
-        <v>624.8682044203583</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003199</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.8250614170374</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>726.8250614170374</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
         <v>674.2349604684848</v>
@@ -5433,19 +5433,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y16" t="n">
-        <v>726.8250614170374</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="17">
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
@@ -5600,19 +5600,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.7865112929638</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C19" t="n">
-        <v>788.7865112929638</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D19" t="n">
-        <v>638.6698718806281</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E19" t="n">
-        <v>490.756778298235</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5709,16 +5709,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X19" t="n">
-        <v>1009.579090436494</v>
+        <v>748.1375921141047</v>
       </c>
       <c r="Y19" t="n">
-        <v>788.7865112929638</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,13 +5737,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>2700.009398668204</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>2946.774526574668</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>3254.09465985463</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>3583.957287518663</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4391.604587469457</v>
+        <v>3829.93170466737</v>
       </c>
       <c r="C22" t="n">
-        <v>4222.66840454155</v>
+        <v>3660.995521739463</v>
       </c>
       <c r="D22" t="n">
-        <v>4072.551765129214</v>
+        <v>3660.995521739463</v>
       </c>
       <c r="E22" t="n">
-        <v>3924.638671546821</v>
+        <v>3660.995521739463</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048911</v>
+        <v>3514.105574241553</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>3514.105574241553</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>3514.105574241553</v>
       </c>
       <c r="I22" t="n">
         <v>3459.155393916675</v>
@@ -5937,25 +5937,25 @@
         <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.85945949167</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U22" t="n">
-        <v>4549.85945949167</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V22" t="n">
-        <v>4549.85945949167</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W22" t="n">
-        <v>4549.85945949167</v>
+        <v>4460.362299539157</v>
       </c>
       <c r="X22" t="n">
-        <v>4549.85945949167</v>
+        <v>4232.37274864114</v>
       </c>
       <c r="Y22" t="n">
-        <v>4549.85945949167</v>
+        <v>4011.58016949761</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2227.840212610279</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2432.862693392488</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3492.843747251887</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T25" t="n">
         <v>4326.074044281177</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="W25" t="n">
-        <v>3492.843747251887</v>
+        <v>3781.972386038329</v>
       </c>
       <c r="X25" t="n">
-        <v>3492.843747251887</v>
+        <v>3553.982835140312</v>
       </c>
       <c r="Y25" t="n">
-        <v>3492.843747251887</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>764.9211061669174</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>764.9211061669174</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>614.8044667545817</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>466.8913731721885</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>320.0014256742782</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>320.0014256742782</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>169.5834172222214</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104475</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X28" t="n">
-        <v>985.7136853104475</v>
+        <v>357.520392187814</v>
       </c>
       <c r="Y28" t="n">
-        <v>764.9211061669174</v>
+        <v>357.520392187814</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,25 +6463,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6542,7 +6542,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
         <v>485.5200852635876</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1096.475226584133</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>927.5390436562259</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>777.4224042438901</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y31" t="n">
-        <v>1278.123691414372</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,7 +6691,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6703,16 +6703,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6785,13 +6785,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>2013.406634128704</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>441.900558318119</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C34" t="n">
-        <v>272.964375390212</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
         <v>208.7516828383384</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="X34" t="n">
-        <v>441.900558318119</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="Y34" t="n">
-        <v>441.900558318119</v>
+        <v>523.8169520164281</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6940,19 +6940,19 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -7019,22 +7019,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L36" t="n">
-        <v>550.2226492899335</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M36" t="n">
-        <v>857.5427825698952</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3578.842145943457</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C37" t="n">
-        <v>3578.842145943457</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D37" t="n">
-        <v>3578.842145943457</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E37" t="n">
-        <v>3578.842145943457</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F37" t="n">
         <v>3459.155393916677</v>
@@ -7122,25 +7122,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.725934227851</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="V37" t="n">
-        <v>4317.041446021964</v>
+        <v>4117.121435937517</v>
       </c>
       <c r="W37" t="n">
-        <v>4027.624275985004</v>
+        <v>3827.704265900556</v>
       </c>
       <c r="X37" t="n">
-        <v>3799.634725086987</v>
+        <v>3599.714715002539</v>
       </c>
       <c r="Y37" t="n">
-        <v>3578.842145943457</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7171,22 +7171,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,25 +7195,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.666285013068</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C40" t="n">
-        <v>860.7301020851612</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1432.107328986838</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1432.107328986838</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1432.107328986838</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1432.107328986838</v>
+        <v>1226.859690943799</v>
       </c>
       <c r="V40" t="n">
-        <v>1432.107328986838</v>
+        <v>1226.859690943799</v>
       </c>
       <c r="W40" t="n">
-        <v>1432.107328986838</v>
+        <v>937.442520906838</v>
       </c>
       <c r="X40" t="n">
-        <v>1432.107328986838</v>
+        <v>709.4529700088207</v>
       </c>
       <c r="Y40" t="n">
-        <v>1211.314749843308</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="41">
@@ -7387,73 +7387,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1818.397748747283</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2338.698370483031</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201016</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201016</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,7 +7663,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899127</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N45" t="n">
         <v>2051.878056918008</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.2468244550147</v>
+        <v>499.7332479750899</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1401.702194260882</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1201.782184176434</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1201.782184176434</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>912.6535453899926</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>912.6535453899926</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W46" t="n">
-        <v>623.236375353032</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X46" t="n">
-        <v>395.2468244550147</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="Y46" t="n">
-        <v>395.2468244550147</v>
+        <v>681.3817128053296</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>283.7408238317658</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>343.3566784943937</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835734</v>
+        <v>450.1033532835731</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470458</v>
+        <v>275.0703592058048</v>
       </c>
       <c r="O6" t="n">
-        <v>100.9163990860286</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.68821697936173</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247342</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>38.86002301949827</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>91.23759968302122</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>358.352002092504</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,22 +9248,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>308.1251096272033</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9482,22 +9482,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>176.7176547498443</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>444.4889386861659</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.6241510367944</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>182.0340742867944</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231155</v>
+        <v>73.64859338270662</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>38.86002301949884</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L36" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.7396287231151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,10 +11384,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>297.2466435761025</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>13.13484058711404</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.1789367865733</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>96.55127307914526</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>150.6837655255577</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>71.22415488427536</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>219.0202153736998</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.15965687994643</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>56.01856694264262</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>133.8953512967693</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>124.7054865406938</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>32.55095792595648</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>38.77658295995577</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>44.278393308918</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>54.48407862881859</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>85.04490739185744</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>136.8447488248941</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>26.93116351641892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>79.43092547709057</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.82350024843876</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>214.8221485642179</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>30.90698584635159</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>219.646644497433</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>27.79054463145621</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.72241686974274</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327922</v>
@@ -26328,7 +26328,7 @@
         <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327923</v>
@@ -26337,25 +26337,25 @@
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327923</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703837</v>
+        <v>106137.1517703833</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.942425211</v>
+        <v>316711.9424252114</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313412</v>
+        <v>24677.24609313403</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817138</v>
+        <v>76496.15793817148</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289500.4927031915</v>
+        <v>291952.4752894287</v>
       </c>
       <c r="C4" t="n">
-        <v>259094.0191450701</v>
+        <v>261578.7376315811</v>
       </c>
       <c r="D4" t="n">
-        <v>163259.7114202398</v>
+        <v>165847.6216777125</v>
       </c>
       <c r="E4" t="n">
-        <v>20264.66659570482</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="F4" t="n">
-        <v>20264.66659570481</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="G4" t="n">
-        <v>20264.66659570482</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="H4" t="n">
-        <v>20264.66659570482</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="I4" t="n">
-        <v>20264.66659570481</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="J4" t="n">
-        <v>20264.66659570481</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="K4" t="n">
-        <v>20264.66659570481</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="L4" t="n">
-        <v>20264.66659570481</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="M4" t="n">
-        <v>20264.66659570481</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="N4" t="n">
-        <v>20264.66659570481</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="O4" t="n">
-        <v>20264.66659570484</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="P4" t="n">
-        <v>20264.66659570481</v>
+        <v>22347.4437579801</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485713</v>
+        <v>58810.4220148571</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107754.0252382137</v>
+        <v>105302.0426519769</v>
       </c>
       <c r="C6" t="n">
-        <v>150687.6459746877</v>
+        <v>148202.9274881771</v>
       </c>
       <c r="D6" t="n">
-        <v>11898.50699613852</v>
+        <v>9310.59673866551</v>
       </c>
       <c r="E6" t="n">
-        <v>-89971.34538852537</v>
+        <v>-92054.12255080091</v>
       </c>
       <c r="F6" t="n">
-        <v>435188.6910883707</v>
+        <v>433105.9139260955</v>
       </c>
       <c r="G6" t="n">
-        <v>435188.6910883707</v>
+        <v>433105.9139260957</v>
       </c>
       <c r="H6" t="n">
-        <v>435188.6910883709</v>
+        <v>433105.9139260956</v>
       </c>
       <c r="I6" t="n">
-        <v>435188.6910883706</v>
+        <v>433105.9139260954</v>
       </c>
       <c r="J6" t="n">
-        <v>362933.9962172318</v>
+        <v>360851.2190549562</v>
       </c>
       <c r="K6" t="n">
-        <v>410511.4449952369</v>
+        <v>408428.6678329615</v>
       </c>
       <c r="L6" t="n">
-        <v>358692.5331501989</v>
+        <v>356609.7559879239</v>
       </c>
       <c r="M6" t="n">
-        <v>300387.6758545336</v>
+        <v>298304.8986922581</v>
       </c>
       <c r="N6" t="n">
-        <v>435188.6910883709</v>
+        <v>433105.9139260956</v>
       </c>
       <c r="O6" t="n">
-        <v>435188.6910883705</v>
+        <v>433105.9139260954</v>
       </c>
       <c r="P6" t="n">
-        <v>435188.691088371</v>
+        <v>433105.9139260954</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.560204559389</v>
+        <v>117.5602045593886</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.039630846422</v>
+        <v>372.0396308464216</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026364</v>
+        <v>82.53894384026331</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576977</v>
+        <v>260.183459657698</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.8831171440662</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.247641908134</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.8831171440662</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.2476419081337</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406656</v>
+        <v>95.8831171440662</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081336</v>
+        <v>302.247641908134</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E2" t="n">
-        <v>279.7169944885064</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F2" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>312.9485729435643</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194537</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>22.0111898156772</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>215.0202828153144</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.4790820805646</v>
+        <v>330.0741992998854</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>9.890739225839752</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528941</v>
+        <v>34.83641489528981</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128834</v>
+        <v>42.79050283128874</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.21330709292488</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281882</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>143.25644728092</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>23.17737145757269</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.37121764358483</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322665</v>
+        <v>68.41045236322671</v>
       </c>
       <c r="R7" t="n">
-        <v>112.6218078526874</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>65.35973658834629</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>299.2776109282844</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>104.8700911784401</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>128.3208733421527</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246789</v>
+        <v>0.4726038374246775</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025494</v>
+        <v>4.840054050025479</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231495</v>
+        <v>18.22005944231489</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662288</v>
+        <v>40.11165994662276</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480955</v>
+        <v>60.11698038480937</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439508</v>
+        <v>74.58043007439485</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819622</v>
+        <v>82.98509856819595</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127909</v>
+        <v>84.32788422127884</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288743</v>
+        <v>79.62842981288719</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646567</v>
+        <v>67.96102257646545</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869434</v>
+        <v>51.03589764869417</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262802</v>
+        <v>29.68720080262792</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531488</v>
+        <v>10.76945994531485</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326533</v>
+        <v>2.068823298326527</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397431</v>
+        <v>0.03780830699397419</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560442</v>
+        <v>0.2528653456560434</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44214689094127</v>
+        <v>2.442146890941262</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859626</v>
+        <v>8.706109488596233</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182829</v>
+        <v>23.89022987182821</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078325</v>
+        <v>40.83220803078312</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483539</v>
+        <v>54.90394270483522</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486699</v>
+        <v>64.07031148486678</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827095</v>
+        <v>65.7660619827093</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106767</v>
+        <v>60.16309827106749</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496866</v>
+        <v>48.28619043496851</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128733</v>
+        <v>32.27803956128723</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134633</v>
+        <v>15.69983260134628</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707661</v>
+        <v>4.696862889707646</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359231</v>
+        <v>1.019224792359227</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368713</v>
+        <v>0.01663587800368707</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005375</v>
+        <v>0.2119938115005368</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886598</v>
+        <v>1.884817705886592</v>
       </c>
       <c r="I7" t="n">
-        <v>6.37523207676162</v>
+        <v>6.3752320767616</v>
       </c>
       <c r="J7" t="n">
-        <v>14.987962473088</v>
+        <v>14.98796247308795</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342608</v>
+        <v>24.629826463426</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072537</v>
+        <v>31.51769812072527</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094334</v>
+        <v>33.23099356094323</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898681</v>
+        <v>32.44083480898671</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736689</v>
+        <v>29.9643616473668</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275591</v>
+        <v>25.63968789275582</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846774</v>
+        <v>17.75159088846768</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651437</v>
+        <v>9.532012651651407</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513911</v>
+        <v>3.694473969513899</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477508</v>
+        <v>0.905791740047748</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912024</v>
+        <v>0.0115632988091202</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>160.6933770016708</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>231.6067186693945</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201036</v>
+        <v>28.16237059201024</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109937</v>
+        <v>164.1725419109936</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548583</v>
+        <v>256.475229654858</v>
       </c>
       <c r="M5" t="n">
-        <v>302.152398833756</v>
+        <v>302.1523988337557</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366723</v>
+        <v>292.2617450366721</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539461</v>
+        <v>230.3303996539458</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926788</v>
+        <v>158.5267349926785</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414953</v>
+        <v>41.04519843414937</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557043</v>
+        <v>23.14363854557035</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690029</v>
+        <v>167.4560060690027</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284204</v>
+        <v>287.1899082284202</v>
       </c>
       <c r="M6" t="n">
-        <v>372.039630846422</v>
+        <v>372.0396308464216</v>
       </c>
       <c r="N6" t="n">
-        <v>372.039630846422</v>
+        <v>209.4947091051808</v>
       </c>
       <c r="O6" t="n">
-        <v>18.48325291265187</v>
+        <v>311.4291731033526</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605756</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111148</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543225</v>
+        <v>2.360334637543147</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104151</v>
+        <v>59.10772338104141</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278393</v>
+        <v>72.81487052278382</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882154</v>
+        <v>76.57300718821531</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140656</v>
+        <v>54.54948956140647</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764939</v>
+        <v>22.91824715764931</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>349.2844000699646</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>241.8130382709604</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>691.5465754905169</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>618.5494866776696</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377835</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36439,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>192.6371838218685</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>464.3977765279026</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110547</v>
+        <v>224.2240319706459</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37387,10 +37387,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L36" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37399,13 +37399,13 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>534.0986420439142</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37645,7 +37645,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>724.9245949685502</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>287.7526615081892</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38104,10 +38104,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>630.4412169741155</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>

--- a/Outputs/1. Budget/Output Files/1000000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Output Files/1000000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261586.166418165</v>
+        <v>2260583.314418233</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.7357022</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>102.2133755837552</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38.19053515138881</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>84.37927012913137</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>17.78030433411091</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>26.51572092966557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.65964236359512</v>
+        <v>332.4181858992079</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464216</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464216</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129685</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>23.72986093321018</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.9546773564008</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>137.164983343979</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>137.1649833439803</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>186.250717003031</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>70.45348975018466</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>37.83808333974838</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.9610008998251</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>213.1872621346133</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.5307186024638</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>33.57232101060738</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.90088782653709</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>6.689440015337305</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>54.40067852162936</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.87916681140099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2614,10 +2614,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.2810222559808</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>207.3569177257662</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>93.87916681139909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.1005747232762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>149.6782495116969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>7.312945786385526</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>67.20739854797228</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>71.4152038343595</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>66.87635383915804</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>139.4562764671716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>87.90024861273406</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C2" t="n">
-        <v>962.1762753293416</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2303018926189</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="E2" t="n">
-        <v>404.2843284558962</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="F2" t="n">
-        <v>125.3383550191735</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901064</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>990.2208545725626</v>
+        <v>181.329976101644</v>
       </c>
       <c r="C3" t="n">
-        <v>815.7678252914357</v>
+        <v>181.329976101644</v>
       </c>
       <c r="D3" t="n">
-        <v>666.8334156301844</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E3" t="n">
-        <v>507.5959606247288</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
         <v>165.799003153448</v>
@@ -4418,43 +4418,43 @@
         <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>411.954469746149</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1019.3944688204</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>1019.3944688204</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940351</v>
+        <v>1019.3944688204</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940351</v>
+        <v>1019.3944688204</v>
       </c>
       <c r="V3" t="n">
-        <v>990.2208545725626</v>
+        <v>1019.3944688204</v>
       </c>
       <c r="W3" t="n">
-        <v>990.2208545725626</v>
+        <v>765.1571120921988</v>
       </c>
       <c r="X3" t="n">
-        <v>990.2208545725626</v>
+        <v>557.3056118866659</v>
       </c>
       <c r="Y3" t="n">
-        <v>990.2208545725626</v>
+        <v>349.545313121712</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>48.87607759080012</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1313.571089545164</v>
+        <v>778.9168197718676</v>
       </c>
       <c r="C5" t="n">
-        <v>1313.571089545164</v>
+        <v>409.9543028314559</v>
       </c>
       <c r="D5" t="n">
-        <v>1313.571089545164</v>
+        <v>51.68860422470539</v>
       </c>
       <c r="E5" t="n">
-        <v>1313.571089545164</v>
+        <v>51.68860422470539</v>
       </c>
       <c r="F5" t="n">
-        <v>937.7734826295869</v>
+        <v>44.74310347550191</v>
       </c>
       <c r="G5" t="n">
-        <v>561.9758757140095</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380389</v>
+        <v>57.6439173538036</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456875</v>
+        <v>220.1747338456868</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039969</v>
+        <v>474.0852112039959</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494151</v>
+        <v>773.2160860494135</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635721</v>
+        <v>1062.555213635718</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293127</v>
+        <v>1290.582309293124</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935879</v>
+        <v>1447.523776935875</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.76264748819</v>
+        <v>1114.692765124603</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.76264748819</v>
+        <v>1114.692765124603</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>593.89364356991</v>
+        <v>658.9226223886625</v>
       </c>
       <c r="C6" t="n">
-        <v>419.440614288783</v>
+        <v>484.4695931075354</v>
       </c>
       <c r="D6" t="n">
-        <v>270.5062046275317</v>
+        <v>335.5351834462842</v>
       </c>
       <c r="E6" t="n">
-        <v>111.2687496220762</v>
+        <v>176.2977284408287</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782838</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361411</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822772</v>
+        <v>314.0811796138493</v>
       </c>
       <c r="M6" t="n">
-        <v>871.0940623202346</v>
+        <v>581.0776013314382</v>
       </c>
       <c r="N6" t="n">
-        <v>1078.493824334364</v>
+        <v>949.3968358693947</v>
       </c>
       <c r="O6" t="n">
-        <v>1386.808705706683</v>
+        <v>1257.711717241713</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706683</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707609</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="S6" t="n">
-        <v>1378.877854209417</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="T6" t="n">
-        <v>1177.720779560465</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="U6" t="n">
-        <v>1177.720779560465</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="V6" t="n">
-        <v>1177.720779560465</v>
+        <v>1488.158523385683</v>
       </c>
       <c r="W6" t="n">
-        <v>1177.720779560465</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>969.8692793549319</v>
+        <v>1034.898258173684</v>
       </c>
       <c r="Y6" t="n">
-        <v>762.108980589978</v>
+        <v>827.1379594087305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="E7" t="n">
-        <v>315.2036061918668</v>
+        <v>176.653117965624</v>
       </c>
       <c r="F7" t="n">
-        <v>168.3136586939565</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="G7" t="n">
-        <v>168.3136586939565</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771373</v>
+        <v>29.76317046771365</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888144</v>
+        <v>32.09990175888119</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611243</v>
+        <v>90.61654790611195</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236684</v>
+        <v>162.7032697236677</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400016</v>
+        <v>238.5105468400006</v>
       </c>
       <c r="O7" t="n">
-        <v>292.514541505794</v>
+        <v>292.5145415057927</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918668</v>
+        <v>315.2036061918654</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668.489050745291</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.526533804879</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4822,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1668.489050745291</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1668.489050745291</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,31 +5056,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.1480540508779</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C13" t="n">
-        <v>822.1480540508779</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035281</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.921157035281</v>
+        <v>994.4469629486189</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.921157035281</v>
+        <v>994.4469629486189</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.940633194408</v>
+        <v>766.4574120506015</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.1480540508779</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211724</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011341</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>449.7218569567718</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>449.7218569567718</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.787631771461</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.787631771461</v>
+        <v>670.514436100302</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.200876391121</v>
+        <v>449.7218569567718</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705745</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>748.1375921141047</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705745</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,16 +5737,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,25 +5755,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2700.009398668204</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>2946.774526574668</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3254.09465985463</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3583.957287518663</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3829.93170466737</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3660.995521739463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3660.995521739463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3660.995521739463</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3514.105574241553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3514.105574241553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3514.105574241553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4749.779469576118</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4749.779469576118</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4460.362299539157</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4232.37274864114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4011.58016949761</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -6071,25 +6071,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4326.074044281177</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4071.38955607529</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3781.972386038329</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3553.982835140312</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,28 +6238,28 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>462.7283310300498</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>208.7516828383384</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>978.4697249890517</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>978.4697249890517</v>
       </c>
       <c r="V28" t="n">
-        <v>874.927113122792</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="W28" t="n">
-        <v>585.5099430858313</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="X28" t="n">
-        <v>357.520392187814</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y28" t="n">
-        <v>357.520392187814</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635876</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6724,22 +6724,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>675.0071030383442</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>523.8169520164281</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>485.404702608941</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L36" t="n">
-        <v>732.169830515405</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916677</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916677</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916677</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4371.805924143404</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>4117.121435937517</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>3827.704265900556</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>3599.714715002539</v>
+        <v>912.983647808858</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916677</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,13 +7159,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.8045051785809</v>
+        <v>782.4872769945463</v>
       </c>
       <c r="C40" t="n">
-        <v>358.8683222506741</v>
+        <v>613.5510940666394</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>463.4344546543036</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>315.5213610719105</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>315.5213610719105</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>315.5213610719105</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>165.1033526198538</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1226.859690943799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V40" t="n">
-        <v>1226.859690943799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W40" t="n">
-        <v>937.442520906838</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X40" t="n">
-        <v>709.4529700088207</v>
+        <v>964.135741824786</v>
       </c>
       <c r="Y40" t="n">
-        <v>709.4529700088207</v>
+        <v>964.135741824786</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>499.7332479750899</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>358.8683222506741</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>909.3712637033469</v>
+        <v>1410.12814064605</v>
       </c>
       <c r="W46" t="n">
-        <v>909.3712637033469</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X46" t="n">
-        <v>681.3817128053296</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y46" t="n">
-        <v>681.3817128053296</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>274.9430030574977</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3566784943937</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948387</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357617</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835731</v>
+        <v>347.7570777074439</v>
       </c>
       <c r="N6" t="n">
-        <v>275.0703592058048</v>
+        <v>437.6152809470451</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>85.68821697936173</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247345</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>38.86002301949827</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>358.352002092504</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>176.7176547498443</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>444.4889386861659</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>176.717654749845</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>73.64859338270662</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>199.6230805871087</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>223.6742649934479</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>297.2466435761025</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>38.95038118921471</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.1789367865733</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>115.043152007605</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.6837655255577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>219.0202153736998</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>56.01856694264262</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.7054865406938</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.55095792595648</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.19064333262301</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>54.48407862881859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>136.8447488248941</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>218.3967096026516</v>
       </c>
       <c r="Y37" t="n">
-        <v>79.43092547709057</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>43.21184691629971</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>214.8221485642179</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>219.646644497433</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>27.79054463145621</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454835</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327922</v>
@@ -26328,19 +26328,19 @@
         <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327921</v>
@@ -26349,13 +26349,13 @@
         <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327926</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703833</v>
+        <v>106137.1517703821</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252114</v>
+        <v>316711.9424252122</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768964</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313403</v>
+        <v>24677.24609313377</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817148</v>
+        <v>76496.1579381718</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291952.4752894287</v>
+        <v>291138.0825094397</v>
       </c>
       <c r="C4" t="n">
-        <v>261578.7376315811</v>
+        <v>260753.4720660437</v>
       </c>
       <c r="D4" t="n">
-        <v>165847.6216777125</v>
+        <v>164988.0823641893</v>
       </c>
       <c r="E4" t="n">
-        <v>22347.4437579801</v>
+        <v>21655.67755507</v>
       </c>
       <c r="F4" t="n">
-        <v>22347.44375798011</v>
+        <v>21655.67755507</v>
       </c>
       <c r="G4" t="n">
-        <v>22347.44375798011</v>
+        <v>21655.67755507</v>
       </c>
       <c r="H4" t="n">
-        <v>22347.4437579801</v>
+        <v>21655.67755507</v>
       </c>
       <c r="I4" t="n">
-        <v>22347.44375798011</v>
+        <v>21655.67755507</v>
       </c>
       <c r="J4" t="n">
-        <v>22347.4437579801</v>
+        <v>21655.67755507</v>
       </c>
       <c r="K4" t="n">
-        <v>22347.44375798011</v>
+        <v>21655.67755507</v>
       </c>
       <c r="L4" t="n">
-        <v>22347.44375798011</v>
+        <v>21655.67755507</v>
       </c>
       <c r="M4" t="n">
-        <v>22347.44375798011</v>
+        <v>21655.67755507</v>
       </c>
       <c r="N4" t="n">
-        <v>22347.44375798011</v>
+        <v>21655.67755507</v>
       </c>
       <c r="O4" t="n">
-        <v>22347.44375798011</v>
+        <v>21655.67755507</v>
       </c>
       <c r="P4" t="n">
-        <v>22347.4437579801</v>
+        <v>21655.67755507</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.4220148571</v>
+        <v>58810.42201485703</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105302.0426519769</v>
+        <v>106116.4354319655</v>
       </c>
       <c r="C6" t="n">
-        <v>148202.9274881771</v>
+        <v>149028.1930537155</v>
       </c>
       <c r="D6" t="n">
-        <v>9310.59673866551</v>
+        <v>10170.13605218809</v>
       </c>
       <c r="E6" t="n">
-        <v>-92054.12255080091</v>
+        <v>-92336.94760761244</v>
       </c>
       <c r="F6" t="n">
-        <v>433105.9139260955</v>
+        <v>432823.0888692839</v>
       </c>
       <c r="G6" t="n">
-        <v>433105.9139260957</v>
+        <v>432823.0888692836</v>
       </c>
       <c r="H6" t="n">
-        <v>433105.9139260956</v>
+        <v>432823.0888692838</v>
       </c>
       <c r="I6" t="n">
-        <v>433105.9139260954</v>
+        <v>432823.0888692837</v>
       </c>
       <c r="J6" t="n">
-        <v>360851.2190549562</v>
+        <v>360568.3939981447</v>
       </c>
       <c r="K6" t="n">
-        <v>408428.6678329615</v>
+        <v>408145.84277615</v>
       </c>
       <c r="L6" t="n">
-        <v>356609.7559879239</v>
+        <v>356326.930931112</v>
       </c>
       <c r="M6" t="n">
-        <v>298304.8986922581</v>
+        <v>298022.0736354467</v>
       </c>
       <c r="N6" t="n">
-        <v>433105.9139260956</v>
+        <v>432823.0888692838</v>
       </c>
       <c r="O6" t="n">
-        <v>433105.9139260954</v>
+        <v>432823.0888692839</v>
       </c>
       <c r="P6" t="n">
-        <v>433105.9139260954</v>
+        <v>432823.0888692843</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593886</v>
+        <v>117.5602045593877</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464216</v>
+        <v>372.0396308464207</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026331</v>
+        <v>82.53894384026239</v>
       </c>
       <c r="D3" t="n">
-        <v>260.183459657698</v>
+        <v>260.1834596576986</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.8831171440662</v>
+        <v>95.88311714406518</v>
       </c>
       <c r="D4" t="n">
-        <v>302.247641908134</v>
+        <v>302.2476419081349</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440662</v>
+        <v>95.88311714406518</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081337</v>
+        <v>302.2476419081351</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440662</v>
+        <v>95.88311714406518</v>
       </c>
       <c r="L4" t="n">
-        <v>302.247641908134</v>
+        <v>302.2476419081349</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>312.9485729435643</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>299.842411742912</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>11.1015737712482</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27517,16 +27517,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>215.0202828153144</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>119.9182417169036</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.0741992998854</v>
+        <v>50.31565576427272</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528981</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128874</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280912</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.181917138522</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>198.2506096409306</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281891</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129697</v>
       </c>
       <c r="S6" t="n">
-        <v>143.25644728092</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.740305804518783</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>9.268979302590196</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>23.17737145757269</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358483</v>
+        <v>78.37121764358494</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322671</v>
+        <v>68.41045236322684</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
@@ -27827,7 +27827,7 @@
         <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>30.19760335462686</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>299.2776109282844</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421889</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>128.3208733421527</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246775</v>
+        <v>0.4726038374246739</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025479</v>
+        <v>4.840054050025443</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231489</v>
+        <v>18.22005944231476</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662276</v>
+        <v>40.11165994662245</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480937</v>
+        <v>60.11698038480891</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439485</v>
+        <v>74.5804300743943</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819595</v>
+        <v>82.98509856819534</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127884</v>
+        <v>84.3278842212782</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288719</v>
+        <v>79.62842981288659</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646545</v>
+        <v>67.96102257646494</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869417</v>
+        <v>51.03589764869379</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262792</v>
+        <v>29.6872008026277</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531485</v>
+        <v>10.76945994531477</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326527</v>
+        <v>2.068823298326511</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397419</v>
+        <v>0.0378083069939739</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560434</v>
+        <v>0.2528653456560415</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941262</v>
+        <v>2.442146890941244</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596233</v>
+        <v>8.706109488596168</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182821</v>
+        <v>23.89022987182803</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078312</v>
+        <v>40.83220803078282</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483522</v>
+        <v>54.90394270483481</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486678</v>
+        <v>64.07031148486631</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827093</v>
+        <v>65.76606198270881</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106749</v>
+        <v>60.16309827106704</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496851</v>
+        <v>48.28619043496815</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128723</v>
+        <v>32.27803956128699</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134628</v>
+        <v>15.69983260134616</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707646</v>
+        <v>4.69686288970761</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359227</v>
+        <v>1.01922479235922</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368707</v>
+        <v>0.01663587800368695</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005368</v>
+        <v>0.2119938115005352</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886592</v>
+        <v>1.884817705886578</v>
       </c>
       <c r="I7" t="n">
-        <v>6.3752320767616</v>
+        <v>6.375232076761552</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308795</v>
+        <v>14.98796247308784</v>
       </c>
       <c r="K7" t="n">
-        <v>24.629826463426</v>
+        <v>24.62982646342581</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072527</v>
+        <v>31.51769812072503</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094323</v>
+        <v>33.23099356094298</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898671</v>
+        <v>32.44083480898647</v>
       </c>
       <c r="O7" t="n">
-        <v>29.9643616473668</v>
+        <v>29.96436164736657</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275582</v>
+        <v>25.63968789275563</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846768</v>
+        <v>17.75159088846755</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651407</v>
+        <v>9.532012651651335</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513899</v>
+        <v>3.694473969513872</v>
       </c>
       <c r="T7" t="n">
-        <v>0.905791740047748</v>
+        <v>0.9057917400477412</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0115632988091202</v>
+        <v>0.01156329880912012</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="N3" t="n">
-        <v>231.6067186693945</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201024</v>
+        <v>28.16237059200994</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109936</v>
+        <v>164.1725419109931</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654858</v>
+        <v>256.4752296548575</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337557</v>
+        <v>302.1523988337551</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366721</v>
+        <v>292.2617450366714</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539458</v>
+        <v>230.3303996539452</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926785</v>
+        <v>158.526734992678</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414937</v>
+        <v>41.04519843414899</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557035</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690027</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284202</v>
+        <v>287.1899082284198</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464216</v>
+        <v>269.6933552702919</v>
       </c>
       <c r="N6" t="n">
-        <v>209.4947091051808</v>
+        <v>372.0396308464207</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033526</v>
+        <v>311.4291731033521</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>232.7745516605751</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111148</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543147</v>
+        <v>2.360334637542962</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104141</v>
+        <v>59.10772338104117</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278382</v>
+        <v>72.81487052278356</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821531</v>
+        <v>76.57300718821506</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140647</v>
+        <v>54.54948956140625</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764931</v>
+        <v>22.91824715764912</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>349.2844000699646</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>691.5465754905169</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>327.2930933377835</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>327.2930933377842</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,16 +36688,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034981</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>224.2240319706459</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37150,22 +37150,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37387,25 +37387,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>350.198519175048</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>534.0986420439142</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,7 +37867,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>724.9245949685502</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>630.4412169741155</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1000000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Output Files/1000000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260583.314418233</v>
+        <v>2259352.140556913</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702201</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C2" t="n">
         <v>276.1565137023555</v>
@@ -670,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>221.2006630000037</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>38.19053515138881</v>
-      </c>
-      <c r="I2" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>34.9823203538329</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.37927012913137</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.51572092966557</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>332.4181858992079</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385216</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>2.623849406862389</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>43.39749206660845</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>242.9546773564008</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>137.164983343979</v>
+        <v>133.9705583486999</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.78417002079501</v>
+        <v>222.5192835879361</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>186.250717003031</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.83808333974838</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>46.90175579878783</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>213.1872621346133</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.57232101060738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>121.1754380856771</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151962</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2611,10 +2611,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.654169196206812</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>207.3569177257662</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>191.8942143424675</v>
       </c>
       <c r="U31" t="n">
-        <v>93.87916681139909</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>123.2743057666223</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>7.312945786385526</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.20739854797228</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>87.90024861273406</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>66.14085215535448</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>323.2990948046596</v>
       </c>
       <c r="C2" t="n">
-        <v>825.6800813726992</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="D2" t="n">
-        <v>825.6800813726992</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="E2" t="n">
-        <v>825.6800813726992</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="F2" t="n">
-        <v>546.7341079359765</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>267.7881344992537</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4363,19 +4363,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>881.1910416781051</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>881.1910416781051</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>881.1910416781051</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>881.1910416781051</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>602.2450682413823</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.329976101644</v>
+        <v>57.42819822127217</v>
       </c>
       <c r="C3" t="n">
-        <v>181.329976101644</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D3" t="n">
-        <v>181.329976101644</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
         <v>22.09252109618844</v>
@@ -4409,16 +4409,16 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>562.3310704112777</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N3" t="n">
         <v>562.3310704112777</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1019.3944688204</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1019.3944688204</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1019.3944688204</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1019.3944688204</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V3" t="n">
-        <v>1019.3944688204</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W3" t="n">
-        <v>765.1571120921988</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="X3" t="n">
-        <v>557.3056118866659</v>
+        <v>433.4038340062941</v>
       </c>
       <c r="Y3" t="n">
-        <v>349.545313121712</v>
+        <v>225.6435352413402</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>48.87607759080012</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
         <v>22.09252109618844</v>
@@ -4515,25 +4515,25 @@
         <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>778.9168197718676</v>
+        <v>990.6465362908882</v>
       </c>
       <c r="C5" t="n">
-        <v>409.9543028314559</v>
+        <v>621.6840193504765</v>
       </c>
       <c r="D5" t="n">
-        <v>51.68860422470539</v>
+        <v>621.6840193504765</v>
       </c>
       <c r="E5" t="n">
-        <v>51.68860422470539</v>
+        <v>245.8864124348984</v>
       </c>
       <c r="F5" t="n">
-        <v>44.74310347550191</v>
+        <v>238.9409116856949</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771365</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771365</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771365</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J5" t="n">
-        <v>57.6439173538036</v>
+        <v>57.64391735380411</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456868</v>
+        <v>220.1747338456881</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039959</v>
+        <v>474.085211203998</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494135</v>
+        <v>773.2160860494166</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635718</v>
+        <v>1062.555213635722</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293124</v>
+        <v>1290.582309293129</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935875</v>
+        <v>1447.523776935881</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385683</v>
+        <v>1366.762647488193</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385683</v>
+        <v>1366.762647488193</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.158523385683</v>
+        <v>1366.762647488193</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.158523385683</v>
+        <v>1366.762647488193</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.158523385683</v>
+        <v>1366.762647488193</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.158523385683</v>
+        <v>1366.762647488193</v>
       </c>
       <c r="X5" t="n">
-        <v>1114.692765124603</v>
+        <v>993.2968892271128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.692765124603</v>
+        <v>990.6465362908882</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658.9226223886625</v>
+        <v>394.5866082942876</v>
       </c>
       <c r="C6" t="n">
-        <v>484.4695931075354</v>
+        <v>220.1335790131606</v>
       </c>
       <c r="D6" t="n">
-        <v>335.5351834462842</v>
+        <v>220.1335790131606</v>
       </c>
       <c r="E6" t="n">
-        <v>176.2977284408287</v>
+        <v>220.1335790131606</v>
       </c>
       <c r="F6" t="n">
-        <v>29.76317046771365</v>
+        <v>73.59902104004556</v>
       </c>
       <c r="G6" t="n">
-        <v>29.76317046771365</v>
+        <v>73.59902104004556</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771365</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771365</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771365</v>
+        <v>52.67537262782855</v>
       </c>
       <c r="K6" t="n">
-        <v>29.76317046771365</v>
+        <v>218.4568186361414</v>
       </c>
       <c r="L6" t="n">
-        <v>314.0811796138493</v>
+        <v>502.7748277822777</v>
       </c>
       <c r="M6" t="n">
-        <v>581.0776013314382</v>
+        <v>848.0470181903961</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693947</v>
+        <v>848.0470181903961</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241713</v>
+        <v>1156.361899562716</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385683</v>
+        <v>1386.808705706685</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="S6" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="T6" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="U6" t="n">
-        <v>1488.158523385683</v>
+        <v>1259.951709039254</v>
       </c>
       <c r="V6" t="n">
-        <v>1488.158523385683</v>
+        <v>1024.799600807511</v>
       </c>
       <c r="W6" t="n">
-        <v>1242.749758379217</v>
+        <v>770.5622440793095</v>
       </c>
       <c r="X6" t="n">
-        <v>1034.898258173684</v>
+        <v>770.5622440793095</v>
       </c>
       <c r="Y6" t="n">
-        <v>827.1379594087305</v>
+        <v>562.8019453143556</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918654</v>
+        <v>165.0869667795319</v>
       </c>
       <c r="E7" t="n">
-        <v>176.653117965624</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771365</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771365</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771365</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771365</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771365</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888119</v>
+        <v>32.09990175888161</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611195</v>
+        <v>90.61654790611276</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236677</v>
+        <v>162.7032697236689</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400006</v>
+        <v>238.5105468400022</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057927</v>
+        <v>292.5145415057947</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918654</v>
+        <v>315.2036061918677</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>432.1759109444022</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,13 +4807,13 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4822,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2277.810876486087</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,28 +4886,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.060406649889</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
         <v>222.942782082032</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1908.095276920733</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2392.65782292164</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.6648329070714</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>295.0106108202091</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>994.4469629486189</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>994.4469629486189</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>766.4574120506015</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y13" t="n">
-        <v>545.6648329070714</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="14">
@@ -5275,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>449.7218569567718</v>
+        <v>799.8610847926851</v>
       </c>
       <c r="C16" t="n">
-        <v>449.7218569567718</v>
+        <v>799.8610847926851</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>649.7444453803494</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>649.7444453803494</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>898.5039869983193</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>670.514436100302</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y16" t="n">
-        <v>449.7218569567718</v>
+        <v>981.5095496229249</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839242001</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688115</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799408</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471237</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974671</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980068</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262965</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5746,13 +5746,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514088</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5986,49 +5986,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6223,40 +6223,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529251</v>
+        <v>268.0733921265328</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>978.4697249890517</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>978.4697249890517</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V28" t="n">
-        <v>723.7852367831648</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W28" t="n">
-        <v>723.7852367831648</v>
+        <v>898.50398699832</v>
       </c>
       <c r="X28" t="n">
-        <v>723.7852367831648</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="Y28" t="n">
-        <v>723.7852367831648</v>
+        <v>449.7218569567725</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
         <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N30" t="n">
         <v>1800.678268171039</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1105.163720733589</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1105.163720733589</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1105.163720733589</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>815.7465506966282</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6782,22 +6782,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>1006.272692205041</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>837.336509277134</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>687.2198698647983</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028587</v>
@@ -6858,7 +6858,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>1187.921157035281</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>485.5200852635876</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>912.983647808858</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y37" t="n">
-        <v>912.983647808858</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,22 +7162,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.4872769945463</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>613.5510940666394</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>463.4344546543036</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>315.5213610719105</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>315.5213610719105</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>315.5213610719105</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>165.1033526198538</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>964.135741824786</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.135741824786</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7393,31 +7393,31 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028587</v>
@@ -7569,7 +7569,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
@@ -7578,7 +7578,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7636,61 +7636,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>1410.12814064605</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W46" t="n">
-        <v>1120.710970609089</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X46" t="n">
-        <v>892.7214197110717</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>274.9430030574977</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>270.0158396049241</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948387</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357617</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.7570777074439</v>
+        <v>426.8235107281799</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470451</v>
+        <v>65.57565010062369</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247345</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270201</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951791</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>145.2351313103788</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907249</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>360.5026862907249</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>360.502686290725</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>119.5918126645898</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>38.95038118921471</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>115.043152007605</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>24.24560993725419</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>51.71984429841024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338119</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>164.592651902421</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>14.19064333262301</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>29.65334671592171</v>
       </c>
       <c r="U31" t="n">
-        <v>192.3581855871782</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>23.15965687994688</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>218.3967096026516</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>43.21184691629971</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271322</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26082,16 +26082,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>164.2373947110939</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>220.3821461812365</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="K2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327921</v>
@@ -26352,10 +26352,10 @@
         <v>547440.6836327921</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327923</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703821</v>
+        <v>106137.151770384</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252122</v>
+        <v>316711.9424252108</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313377</v>
+        <v>24677.24609313412</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.1579381718</v>
+        <v>76496.15793817143</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291138.0825094397</v>
+        <v>291952.4752894287</v>
       </c>
       <c r="C4" t="n">
-        <v>260753.4720660437</v>
+        <v>261578.7376315809</v>
       </c>
       <c r="D4" t="n">
-        <v>164988.0823641893</v>
+        <v>165847.6216777125</v>
       </c>
       <c r="E4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="F4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="G4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="H4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="I4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="J4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.44375798011</v>
       </c>
       <c r="K4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="L4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="M4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.44375798003</v>
       </c>
       <c r="N4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="O4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.4437579801</v>
       </c>
       <c r="P4" t="n">
-        <v>21655.67755507</v>
+        <v>22347.44375798009</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485703</v>
+        <v>58810.42201485716</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106116.4354319655</v>
+        <v>105302.0426519768</v>
       </c>
       <c r="C6" t="n">
-        <v>149028.1930537155</v>
+        <v>148202.9274881767</v>
       </c>
       <c r="D6" t="n">
-        <v>10170.13605218809</v>
+        <v>9310.596738666325</v>
       </c>
       <c r="E6" t="n">
-        <v>-92336.94760761244</v>
+        <v>-92151.58167677333</v>
       </c>
       <c r="F6" t="n">
-        <v>432823.0888692839</v>
+        <v>433008.4548001231</v>
       </c>
       <c r="G6" t="n">
-        <v>432823.0888692836</v>
+        <v>433008.4548001232</v>
       </c>
       <c r="H6" t="n">
-        <v>432823.0888692838</v>
+        <v>433008.454800123</v>
       </c>
       <c r="I6" t="n">
-        <v>432823.0888692837</v>
+        <v>433008.4548001232</v>
       </c>
       <c r="J6" t="n">
-        <v>360568.3939981447</v>
+        <v>360753.7599289839</v>
       </c>
       <c r="K6" t="n">
-        <v>408145.84277615</v>
+        <v>408331.208706989</v>
       </c>
       <c r="L6" t="n">
-        <v>356326.930931112</v>
+        <v>356512.2968619516</v>
       </c>
       <c r="M6" t="n">
-        <v>298022.0736354467</v>
+        <v>298207.4395662859</v>
       </c>
       <c r="N6" t="n">
-        <v>432823.0888692838</v>
+        <v>433008.4548001231</v>
       </c>
       <c r="O6" t="n">
-        <v>432823.0888692839</v>
+        <v>433008.454800123</v>
       </c>
       <c r="P6" t="n">
-        <v>432823.0888692843</v>
+        <v>433008.4548001234</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593877</v>
+        <v>117.5602045593892</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,28 +26792,28 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464207</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026239</v>
+        <v>82.53894384026384</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576986</v>
+        <v>260.1834596576975</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406518</v>
+        <v>95.88311714406679</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081349</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406518</v>
+        <v>95.88311714406656</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081351</v>
+        <v>302.2476419081335</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406518</v>
+        <v>95.88311714406679</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081349</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
         <v>89.11637806865207</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>299.842411742912</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>30.13372678880759</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>137.7261786344828</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>11.1015737712482</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27514,13 +27514,13 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>119.9182417169036</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27587,7 +27587,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206872</v>
       </c>
       <c r="T4" t="n">
         <v>227.6757534850358</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.31565576427272</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225839468</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280912</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.181917138522</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409306</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>383.6140892491912</v>
       </c>
     </row>
     <row r="6">
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>66.39580527894674</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281891</v>
+        <v>80.69052336281879</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129697</v>
+        <v>84.45800155129677</v>
       </c>
       <c r="S6" t="n">
         <v>166.9863082141302</v>
@@ -27751,16 +27751,16 @@
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>8.740305804518783</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>9.268979302590196</v>
+        <v>12.46340429786923</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358494</v>
+        <v>78.37121764358476</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322684</v>
+        <v>68.41045236322663</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882338</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>191.2648864328589</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>30.19760335462686</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9938968421889</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246739</v>
+        <v>0.4726038374246798</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025443</v>
+        <v>4.840054050025503</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231476</v>
+        <v>18.22005944231498</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662245</v>
+        <v>40.11165994662295</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480891</v>
+        <v>60.11698038480966</v>
       </c>
       <c r="L5" t="n">
-        <v>74.5804300743943</v>
+        <v>74.58043007439521</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819534</v>
+        <v>82.98509856819636</v>
       </c>
       <c r="N5" t="n">
-        <v>84.3278842212782</v>
+        <v>84.32788422127923</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288659</v>
+        <v>79.62842981288757</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646494</v>
+        <v>67.96102257646578</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869379</v>
+        <v>51.03589764869442</v>
       </c>
       <c r="R5" t="n">
-        <v>29.6872008026277</v>
+        <v>29.68720080262807</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531477</v>
+        <v>10.7694599453149</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326511</v>
+        <v>2.068823298326537</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0378083069939739</v>
+        <v>0.03780830699397437</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560415</v>
+        <v>0.2528653456560447</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941244</v>
+        <v>2.442146890941274</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596168</v>
+        <v>8.706109488596276</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182803</v>
+        <v>23.89022987182833</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078282</v>
+        <v>40.83220803078332</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483481</v>
+        <v>54.90394270483549</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486631</v>
+        <v>64.07031148486709</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270881</v>
+        <v>65.76606198270962</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106704</v>
+        <v>60.16309827106778</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496815</v>
+        <v>48.28619043496874</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128699</v>
+        <v>32.27803956128739</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134616</v>
+        <v>15.69983260134636</v>
       </c>
       <c r="S6" t="n">
-        <v>4.69686288970761</v>
+        <v>4.696862889707669</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01922479235922</v>
+        <v>1.019224792359232</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368695</v>
+        <v>0.01663587800368715</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005352</v>
+        <v>0.2119938115005378</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886578</v>
+        <v>1.884817705886601</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761552</v>
+        <v>6.37523207676163</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308784</v>
+        <v>14.98796247308802</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342581</v>
+        <v>24.62982646342612</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072503</v>
+        <v>31.51769812072542</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094298</v>
+        <v>33.2309935609434</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898647</v>
+        <v>32.44083480898687</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736657</v>
+        <v>29.96436164736694</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275563</v>
+        <v>25.63968789275595</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846755</v>
+        <v>17.75159088846776</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651335</v>
+        <v>9.532012651651453</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513872</v>
+        <v>3.694473969513917</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477412</v>
+        <v>0.9057917400477523</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912012</v>
+        <v>0.01156329880912026</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
@@ -34786,10 +34786,10 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>151.8955562274027</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059200994</v>
+        <v>28.16237059201043</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109931</v>
+        <v>164.1725419109939</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548575</v>
+        <v>256.4752296548584</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337551</v>
+        <v>302.1523988337561</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366714</v>
+        <v>292.2617450366725</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539452</v>
+        <v>230.3303996539462</v>
       </c>
       <c r="P5" t="n">
-        <v>158.526734992678</v>
+        <v>158.5267349926789</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414899</v>
+        <v>41.04519843414962</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557047</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690029</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284198</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>269.6933552702919</v>
+        <v>348.7597882910287</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464207</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033521</v>
+        <v>311.4291731033529</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605751</v>
+        <v>232.7745516605757</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.373553211115</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637542962</v>
+        <v>2.360334637543264</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104117</v>
+        <v>59.10772338104156</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278356</v>
+        <v>72.81487052278399</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821506</v>
+        <v>76.57300718821546</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140625</v>
+        <v>54.54948956140662</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764912</v>
+        <v>22.91824715764944</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>233.248164095453</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556988</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36931,7 +36931,7 @@
         <v>460.8305752819984</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>609.7603912467492</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467492</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467494</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
